--- a/Script/result_min_new.xlsx
+++ b/Script/result_min_new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,58 +535,471 @@
         <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9997210298890882</v>
+        <v>0.3388278260535035</v>
       </c>
       <c r="C2" t="n">
-        <v>2.002906141902492</v>
+        <v>2.023478248871585</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.01249370201627398</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4</v>
+        <v>0.1463454960311175</v>
       </c>
       <c r="F2" t="n">
-        <v>300000015.4186218</v>
+        <v>297089.6444159501</v>
       </c>
       <c r="G2" t="n">
-        <v>11.71999912854147</v>
+        <v>10.62235303903832</v>
       </c>
       <c r="H2" t="n">
-        <v>300.0000036986218</v>
+        <v>-97.25554140509757</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1000000000647411</v>
+        <v>0.09391881190276918</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4859999533141008</v>
+        <v>0.3276155798275998</v>
       </c>
       <c r="K2" t="n">
-        <v>600.0000038928451</v>
+        <v>600.0084342575507</v>
       </c>
       <c r="L2" t="n">
-        <v>300.0000001942233</v>
+        <v>281.7564357083075</v>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>20.69092627742002</v>
       </c>
       <c r="N2" t="n">
-        <v>50.00000009711167</v>
+        <v>26.39881218572697</v>
       </c>
       <c r="O2" t="n">
-        <v>2.5</v>
+        <v>1.034546313871001</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>1.15845070265479</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1499999533140906</v>
+        <v>0.01555955597455749</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0.05727189543623469</v>
       </c>
       <c r="S2" t="n">
-        <v>0.136</v>
+        <v>0.1360000000011568</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>150</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6685877219985668</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.50402848966729</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03353253328006645</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03019361982336222</v>
+      </c>
+      <c r="F3" t="n">
+        <v>82867.79627497288</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.796445633789947</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.284814672257426</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04244120610672372</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3250252134654524</v>
+      </c>
+      <c r="K3" t="n">
+        <v>900.603093282563</v>
+      </c>
+      <c r="L3" t="n">
+        <v>190.9854274802567</v>
+      </c>
+      <c r="M3" t="n">
+        <v>23.77610792609493</v>
+      </c>
+      <c r="N3" t="n">
+        <v>30.57239944871003</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.188805396304747</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.034366531390055</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.09865968864344431</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.08008049573060988</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1360000002043129</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>200</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6005973767369035</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.440766807989856</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05281618539862254</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.07380696339928139</v>
+      </c>
+      <c r="F4" t="n">
+        <v>218389.8693626298</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.847198315908756</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-21.83792367483011</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.02980051687083334</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2767540241373334</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1206.681553398792</v>
+      </c>
+      <c r="L4" t="n">
+        <v>178.803101225</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23.34158476219663</v>
+      </c>
+      <c r="N4" t="n">
+        <v>26.53259932803936</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.167079238109831</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.245719504574672</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.07977200159188062</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0370946459369761</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.1360000103843148</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>250</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5822300154058043</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.277482506879564</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04309867196228045</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.09663259162379334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3342883.688599465</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.508139836725181</v>
+      </c>
+      <c r="H5" t="n">
+        <v>334.287345667751</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02779955651538565</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2795355954854047</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1529.317605885755</v>
+      </c>
+      <c r="L5" t="n">
+        <v>208.4966738653923</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24.28260690757032</v>
+      </c>
+      <c r="N5" t="n">
+        <v>22.70663795703628</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.214130345378516</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.11421098779815</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0744465962625098</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.03192085769270978</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1360006362544565</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>300</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8451461185989597</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.107284576817186</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02932868461649585</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03959349232174481</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4130285.262195366</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.850541325438796</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-413.0274325790569</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02603796949591233</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3006450460505444</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1800.63066228408</v>
+      </c>
+      <c r="L6" t="n">
+        <v>234.341725463211</v>
+      </c>
+      <c r="M6" t="n">
+        <v>24.44857672136994</v>
+      </c>
+      <c r="N6" t="n">
+        <v>46.62444419578215</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.222428836068497</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.135362076053178</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1370975066197835</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.01468729632475461</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.13600000007762</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>350</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7986029226337785</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.398968966530791</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02331943152322113</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09770951068514866</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1412294.012476082</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8.067983289770437</v>
+      </c>
+      <c r="H7" t="n">
+        <v>141.2282859889965</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0202650532406207</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.286030456278825</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2120.700314110513</v>
+      </c>
+      <c r="L7" t="n">
+        <v>212.7830590265173</v>
+      </c>
+      <c r="M7" t="n">
+        <v>35.26555002620434</v>
+      </c>
+      <c r="N7" t="n">
+        <v>28.60069795592646</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.763277501310217</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.406558041623331</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1289310595793656</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.02070508232129873</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1360003951368222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>400</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5939101247361228</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.008411758175113</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02150755988185782</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1455638388319174</v>
+      </c>
+      <c r="F8" t="n">
+        <v>539577.4060709919</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.941306980861121</v>
+      </c>
+      <c r="H8" t="n">
+        <v>53.95666334092994</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01803453056782837</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.29581646561328</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2400.338079463606</v>
+      </c>
+      <c r="L8" t="n">
+        <v>216.4143668139404</v>
+      </c>
+      <c r="M8" t="n">
+        <v>41.29789016132452</v>
+      </c>
+      <c r="N8" t="n">
+        <v>20.59429772698062</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.064894508066226</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.029466150891141</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.07784175587537606</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.01951282426779806</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.136000000041131</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>450</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4138791150292608</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.002629752956991</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.003418412401630988</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.008052992331349706</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5387625.346341266</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.749240946277897</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-538.7601860535615</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01530843670260861</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3023267084758574</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2703.494011568643</v>
+      </c>
+      <c r="L9" t="n">
+        <v>206.6638954852162</v>
+      </c>
+      <c r="M9" t="n">
+        <v>23.5850409192806</v>
+      </c>
+      <c r="N9" t="n">
+        <v>35.96038357045796</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.17925204596403</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.208132725452545</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.02835832181858552</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.02796731880538337</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.1360000031768854</v>
       </c>
     </row>
   </sheetData>
